--- a/teaching/traditional_assets/database/data/germany/germany_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_insurance_general.xlsx
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.02</v>
+        <v>0.0161</v>
       </c>
       <c r="E2">
-        <v>0.0288</v>
+        <v>0.01215</v>
       </c>
       <c r="F2">
-        <v>0.08205</v>
+        <v>0.1654</v>
       </c>
       <c r="G2">
-        <v>0.09864448597761163</v>
+        <v>0.09703553524722451</v>
       </c>
       <c r="H2">
-        <v>0.09864448597761163</v>
+        <v>0.09703553524722451</v>
       </c>
       <c r="I2">
-        <v>0.09462344234996632</v>
+        <v>0.08972305340308846</v>
       </c>
       <c r="J2">
-        <v>0.07329103401096237</v>
+        <v>0.07484730222079432</v>
       </c>
       <c r="K2">
-        <v>9571.35</v>
+        <v>8976.74</v>
       </c>
       <c r="L2">
-        <v>0.0591560237925715</v>
+        <v>0.04929466013046412</v>
       </c>
       <c r="M2">
-        <v>467.68</v>
+        <v>465.97</v>
       </c>
       <c r="N2">
-        <v>0.004103438805959673</v>
+        <v>0.004142791478813947</v>
       </c>
       <c r="O2">
-        <v>0.04886249066223678</v>
+        <v>0.05190859933561627</v>
       </c>
       <c r="P2">
-        <v>467.68</v>
+        <v>465.97</v>
       </c>
       <c r="Q2">
-        <v>0.004103438805959673</v>
+        <v>0.004142791478813947</v>
       </c>
       <c r="R2">
-        <v>0.04886249066223678</v>
+        <v>0.05190859933561627</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,73 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>25008.1</v>
+        <v>30655.85</v>
       </c>
       <c r="V2">
-        <v>0.2194218440029937</v>
+        <v>0.2725514392681901</v>
       </c>
       <c r="W2">
-        <v>0.1051682086634012</v>
+        <v>0.09889207134327588</v>
       </c>
       <c r="X2">
-        <v>0.04807270113522693</v>
+        <v>0.0410960917177257</v>
       </c>
       <c r="Y2">
-        <v>0.05709550752817432</v>
+        <v>0.05779597962555018</v>
       </c>
       <c r="Z2">
-        <v>1.533701255341353</v>
+        <v>1.585696489752046</v>
       </c>
       <c r="AA2">
-        <v>0.001652360515021459</v>
+        <v>0.08053937714421031</v>
       </c>
       <c r="AB2">
-        <v>0.04675889908238335</v>
+        <v>0.04035682311219418</v>
       </c>
       <c r="AC2">
-        <v>-0.04510653856736189</v>
+        <v>0.04018255403201612</v>
       </c>
       <c r="AD2">
-        <v>47600.6</v>
+        <v>51565.64</v>
       </c>
       <c r="AE2">
-        <v>3035.59212641605</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>50636.19212641605</v>
+        <v>51565.64</v>
       </c>
       <c r="AG2">
-        <v>25628.09212641605</v>
+        <v>20909.79</v>
       </c>
       <c r="AH2">
-        <v>0.3076151687329781</v>
+        <v>0.3143423301240517</v>
       </c>
       <c r="AI2">
-        <v>0.3266813333688315</v>
+        <v>0.3146999198201061</v>
       </c>
       <c r="AJ2">
-        <v>0.1835812801349181</v>
+        <v>0.1567602231970125</v>
       </c>
       <c r="AK2">
-        <v>0.1971487362747824</v>
+        <v>0.1569795922228331</v>
       </c>
       <c r="AL2">
-        <v>1643.2</v>
+        <v>1608.67</v>
       </c>
       <c r="AM2">
-        <v>1643.2</v>
+        <v>1608.67</v>
       </c>
       <c r="AN2">
-        <v>2.737477492295191</v>
+        <v>2.877228966888703</v>
       </c>
       <c r="AO2">
-        <v>9.362597370983448</v>
+        <v>10.15677547290619</v>
       </c>
       <c r="AP2">
-        <v>1.4738538036607</v>
+        <v>1.166712048557135</v>
       </c>
       <c r="AQ2">
-        <v>9.362597370983448</v>
+        <v>10.15677547290619</v>
       </c>
     </row>
     <row r="3">
@@ -728,49 +728,49 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0585</v>
+        <v>0.0554</v>
       </c>
       <c r="E3">
-        <v>0.0545</v>
+        <v>-0.00726</v>
       </c>
       <c r="F3">
-        <v>0.112</v>
+        <v>0.265</v>
       </c>
       <c r="G3">
-        <v>0.06584784116481794</v>
+        <v>0.06947996956422679</v>
       </c>
       <c r="H3">
-        <v>0.06584784116481794</v>
+        <v>0.06947996956422679</v>
       </c>
       <c r="I3">
-        <v>0.06662556222314851</v>
+        <v>0.05137541322580506</v>
       </c>
       <c r="J3">
-        <v>0.05146331179251629</v>
+        <v>0.0393312441069017</v>
       </c>
       <c r="K3">
-        <v>1043.5</v>
+        <v>823.2</v>
       </c>
       <c r="L3">
-        <v>0.02603425993842592</v>
+        <v>0.01769401730712189</v>
       </c>
       <c r="M3">
-        <v>423.1</v>
+        <v>418</v>
       </c>
       <c r="N3">
-        <v>0.03377261951324644</v>
+        <v>0.04258093433571705</v>
       </c>
       <c r="O3">
-        <v>0.4054623862002875</v>
+        <v>0.5077745383867832</v>
       </c>
       <c r="P3">
-        <v>423.1</v>
+        <v>418</v>
       </c>
       <c r="Q3">
-        <v>0.03377261951324644</v>
+        <v>0.04258093433571705</v>
       </c>
       <c r="R3">
-        <v>0.4054623862002875</v>
+        <v>0.5077745383867832</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,73 +779,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4447.7</v>
+        <v>4533.8</v>
       </c>
       <c r="V3">
-        <v>0.355023587353028</v>
+        <v>0.4618503351465884</v>
       </c>
       <c r="W3">
-        <v>0.1051682086634012</v>
+        <v>0.07378393639810342</v>
       </c>
       <c r="X3">
-        <v>0.05646934589481162</v>
+        <v>0.05557382269949658</v>
       </c>
       <c r="Y3">
-        <v>0.04869886276858963</v>
+        <v>0.01821011369860684</v>
       </c>
       <c r="Z3">
-        <v>3.46934322426879</v>
+        <v>4.237910020859712</v>
       </c>
       <c r="AA3">
-        <v>0.1785438920657985</v>
+        <v>0.1666822735335182</v>
       </c>
       <c r="AB3">
-        <v>0.04467165451228285</v>
+        <v>0.03858882354160514</v>
       </c>
       <c r="AC3">
-        <v>0.1338722375535157</v>
+        <v>0.1280934499919131</v>
       </c>
       <c r="AD3">
-        <v>5471.6</v>
+        <v>6777.8</v>
       </c>
       <c r="AE3">
-        <v>584.1377004210267</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6055.737700421027</v>
+        <v>6777.8</v>
       </c>
       <c r="AG3">
-        <v>1608.037700421027</v>
+        <v>2244</v>
       </c>
       <c r="AH3">
-        <v>0.3258639561340474</v>
+        <v>0.4084389914670009</v>
       </c>
       <c r="AI3">
-        <v>0.2486921444344618</v>
+        <v>0.2554874118414258</v>
       </c>
       <c r="AJ3">
-        <v>0.1137552905579891</v>
+        <v>0.1860603950052236</v>
       </c>
       <c r="AK3">
-        <v>0.08079520537054291</v>
+        <v>0.1020227232429041</v>
       </c>
       <c r="AL3">
-        <v>419.8</v>
+        <v>439.2</v>
       </c>
       <c r="AM3">
-        <v>419.8</v>
+        <v>439.2</v>
       </c>
       <c r="AN3">
-        <v>1.75935691318328</v>
+        <v>2.520002974419988</v>
       </c>
       <c r="AO3">
-        <v>6.418770843258694</v>
+        <v>5.442167577413478</v>
       </c>
       <c r="AP3">
-        <v>0.5170539229649603</v>
+        <v>0.8343248066627008</v>
       </c>
       <c r="AQ3">
-        <v>6.418770843258694</v>
+        <v>5.442167577413478</v>
       </c>
     </row>
     <row r="4">
@@ -865,31 +865,31 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0125</v>
+        <v>0.0182</v>
       </c>
       <c r="E4">
-        <v>0.0438</v>
+        <v>0.0131</v>
       </c>
       <c r="F4">
-        <v>0.0521</v>
+        <v>0.0658</v>
       </c>
       <c r="G4">
-        <v>0.1137562043358742</v>
+        <v>0.1108851788068531</v>
       </c>
       <c r="H4">
-        <v>0.1137562043358742</v>
+        <v>0.1108851788068531</v>
       </c>
       <c r="I4">
-        <v>0.1082775405674369</v>
+        <v>0.106419978159594</v>
       </c>
       <c r="J4">
-        <v>0.08143465723095947</v>
+        <v>0.07895207973573588</v>
       </c>
       <c r="K4">
-        <v>8452.700000000001</v>
+        <v>8041.3</v>
       </c>
       <c r="L4">
-        <v>0.07227340546964846</v>
+        <v>0.06149343717212626</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -913,73 +913,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>20235.5</v>
+        <v>25442.7</v>
       </c>
       <c r="V4">
-        <v>0.2019944399247343</v>
+        <v>0.2517244859191718</v>
       </c>
       <c r="W4">
-        <v>0.1210723150942559</v>
+        <v>0.09889207134327588</v>
       </c>
       <c r="X4">
-        <v>0.05571246043696707</v>
+        <v>0.05016652768895191</v>
       </c>
       <c r="Y4">
-        <v>0.06535985465728879</v>
+        <v>0.04872554365432397</v>
       </c>
       <c r="Z4">
-        <v>1.249225980891119</v>
+        <v>1.267438242737276</v>
       </c>
       <c r="AA4">
-        <v>0.1017302895578774</v>
+        <v>0.1000668852007144</v>
       </c>
       <c r="AB4">
-        <v>0.04438366617897761</v>
+        <v>0.03860389418259323</v>
       </c>
       <c r="AC4">
-        <v>0.0573466233788998</v>
+        <v>0.06146299101812117</v>
       </c>
       <c r="AD4">
-        <v>42095.7</v>
+        <v>44758.1</v>
       </c>
       <c r="AE4">
-        <v>2438.77190852852</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>44534.47190852852</v>
+        <v>44758.1</v>
       </c>
       <c r="AG4">
-        <v>24298.97190852852</v>
+        <v>19315.4</v>
       </c>
       <c r="AH4">
-        <v>0.3077434684755024</v>
+        <v>0.3069161231748652</v>
       </c>
       <c r="AI4">
-        <v>0.3436204488091972</v>
+        <v>0.3284899316791201</v>
       </c>
       <c r="AJ4">
-        <v>0.195207787690165</v>
+        <v>0.1604415685818472</v>
       </c>
       <c r="AK4">
-        <v>0.2221758989338441</v>
+        <v>0.1743087805045329</v>
       </c>
       <c r="AL4">
-        <v>1223.4</v>
+        <v>1168.4</v>
       </c>
       <c r="AM4">
-        <v>1223.4</v>
+        <v>1168.4</v>
       </c>
       <c r="AN4">
-        <v>2.951847021204981</v>
+        <v>2.946511566667983</v>
       </c>
       <c r="AO4">
-        <v>10.393248324342</v>
+        <v>11.91047586442999</v>
       </c>
       <c r="AP4">
-        <v>1.703899634559668</v>
+        <v>1.271569827915366</v>
       </c>
       <c r="AQ4">
-        <v>10.393248324342</v>
+        <v>11.91047586442999</v>
       </c>
     </row>
     <row r="5">
@@ -999,46 +999,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0998</v>
+        <v>-0.0766</v>
       </c>
       <c r="E5">
-        <v>-0.0955</v>
+        <v>0.0112</v>
       </c>
       <c r="G5">
-        <v>0.007324787747627768</v>
+        <v>-0.01118346545866365</v>
       </c>
       <c r="H5">
-        <v>0.007324787747627768</v>
+        <v>-0.01118346545866365</v>
       </c>
       <c r="I5">
-        <v>0.0001831196936906942</v>
+        <v>0.01380237825594564</v>
       </c>
       <c r="J5">
-        <v>0.0001144498085566839</v>
+        <v>0.01204290195803009</v>
       </c>
       <c r="K5">
-        <v>66.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L5">
-        <v>0.01583866441532498</v>
+        <v>0.02345224613061533</v>
       </c>
       <c r="M5">
-        <v>39.3</v>
+        <v>42.8</v>
       </c>
       <c r="N5">
-        <v>0.0451620317168467</v>
+        <v>0.04228413357044062</v>
       </c>
       <c r="O5">
-        <v>0.5900900900900901</v>
+        <v>0.4305835010060362</v>
       </c>
       <c r="P5">
-        <v>39.3</v>
+        <v>42.8</v>
       </c>
       <c r="Q5">
-        <v>0.0451620317168467</v>
+        <v>0.04228413357044062</v>
       </c>
       <c r="R5">
-        <v>0.5900900900900901</v>
+        <v>0.4305835010060362</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1047,55 +1047,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>306.7</v>
+        <v>675.9</v>
       </c>
       <c r="V5">
-        <v>0.3524477131693863</v>
+        <v>0.6677534084173088</v>
       </c>
       <c r="W5">
-        <v>0.07409055512292802</v>
+        <v>0.1092788038698329</v>
       </c>
       <c r="X5">
-        <v>0.04779283305094617</v>
+        <v>0.0410960917177257</v>
       </c>
       <c r="Y5">
-        <v>0.02629772207198185</v>
+        <v>0.06818271215210719</v>
       </c>
       <c r="Z5">
-        <v>14.43742489270386</v>
+        <v>6.687705124968442</v>
       </c>
       <c r="AA5">
-        <v>0.001652360515021459</v>
+        <v>0.08053937714421031</v>
       </c>
       <c r="AB5">
-        <v>0.04675889908238335</v>
+        <v>0.04035682311219418</v>
       </c>
       <c r="AC5">
-        <v>-0.04510653856736189</v>
+        <v>0.04018255403201612</v>
       </c>
       <c r="AD5">
-        <v>33.3</v>
+        <v>27.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>33.3</v>
+        <v>27.8</v>
       </c>
       <c r="AG5">
-        <v>-273.4</v>
+        <v>-648.1</v>
       </c>
       <c r="AH5">
-        <v>0.03685666851134477</v>
+        <v>0.02673076923076923</v>
       </c>
       <c r="AI5">
-        <v>0.03463698772623258</v>
+        <v>0.02765068629401234</v>
       </c>
       <c r="AJ5">
-        <v>-0.4581099195710455</v>
+        <v>-1.78000549299643</v>
       </c>
       <c r="AK5">
-        <v>-0.4175958454253856</v>
+        <v>-1.966919575113809</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>1.03416149068323</v>
+        <v>0.4648829431438127</v>
       </c>
       <c r="AP5">
-        <v>-8.490683229813664</v>
+        <v>-10.83779264214047</v>
       </c>
     </row>
     <row r="6">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.07699805068226122</v>
+        <v>-0.05935582822085889</v>
       </c>
       <c r="H6">
-        <v>-0.07699805068226122</v>
+        <v>-0.05935582822085889</v>
       </c>
       <c r="I6">
-        <v>-0.1552924657563503</v>
+        <v>-0.1150306748466258</v>
       </c>
       <c r="J6">
-        <v>-0.1552924657563503</v>
+        <v>-0.1150306748466258</v>
       </c>
       <c r="K6">
-        <v>-6.95</v>
+        <v>-3.86</v>
       </c>
       <c r="L6">
-        <v>-0.1354775828460039</v>
+        <v>-0.05920245398773006</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1166,67 +1166,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>18.2</v>
+        <v>3.45</v>
       </c>
       <c r="V6">
-        <v>0.07551867219917012</v>
+        <v>0.008443465491923641</v>
       </c>
       <c r="W6">
-        <v>-0.3075221238938053</v>
+        <v>-0.05237449118046133</v>
       </c>
       <c r="X6">
-        <v>0.04807270113522693</v>
+        <v>0.04060001064693675</v>
       </c>
       <c r="Y6">
-        <v>-0.3555948250290322</v>
+        <v>-0.09297450182739808</v>
       </c>
       <c r="Z6">
-        <v>1.743562564230019</v>
+        <v>1.174774774774775</v>
       </c>
       <c r="AA6">
-        <v>-0.2707621297997446</v>
+        <v>-0.1351351351351351</v>
       </c>
       <c r="AB6">
-        <v>0.04686621908546627</v>
+        <v>0.04047166646450615</v>
       </c>
       <c r="AC6">
-        <v>-0.3176283488852109</v>
+        <v>-0.1756068015996413</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AE6">
-        <v>12.68251746650385</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>12.68251746650385</v>
+        <v>1.94</v>
       </c>
       <c r="AG6">
-        <v>-5.517482533496146</v>
+        <v>-1.51</v>
       </c>
       <c r="AH6">
-        <v>0.04999365976482179</v>
+        <v>0.004725483509524041</v>
       </c>
       <c r="AI6">
-        <v>0.1468181043857826</v>
+        <v>0.02847079542119166</v>
       </c>
       <c r="AJ6">
-        <v>-0.02343053995199868</v>
+        <v>-0.003709253482031001</v>
       </c>
       <c r="AK6">
-        <v>-0.08092224720518321</v>
+        <v>-0.02334209305920545</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AN6">
-        <v>-0</v>
+        <v>-0.2844574780058651</v>
+      </c>
+      <c r="AO6">
+        <v>-7.009345794392523</v>
       </c>
       <c r="AP6">
-        <v>1.204690509496975</v>
+        <v>0.2214076246334311</v>
+      </c>
+      <c r="AQ6">
+        <v>-7.009345794392523</v>
       </c>
     </row>
     <row r="7">
@@ -1246,46 +1252,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0275</v>
+        <v>0.014</v>
       </c>
       <c r="E7">
-        <v>0.0138</v>
+        <v>0.124</v>
       </c>
       <c r="G7">
-        <v>-0.01962838505633524</v>
+        <v>-0.02121390689451974</v>
       </c>
       <c r="H7">
-        <v>-0.01962838505633524</v>
+        <v>-0.02121390689451974</v>
       </c>
       <c r="I7">
-        <v>-0.03340581142518284</v>
+        <v>-0.03633863681005696</v>
       </c>
       <c r="J7">
-        <v>-0.02416094733309736</v>
+        <v>-0.02874523298606864</v>
       </c>
       <c r="K7">
-        <v>15.5</v>
+        <v>16.7</v>
       </c>
       <c r="L7">
-        <v>0.03063846610001977</v>
+        <v>0.03280298566097033</v>
       </c>
       <c r="M7">
-        <v>5.28</v>
+        <v>5.17</v>
       </c>
       <c r="N7">
-        <v>0.03404255319148936</v>
+        <v>0.03108839446782922</v>
       </c>
       <c r="O7">
-        <v>0.3406451612903226</v>
+        <v>0.3095808383233533</v>
       </c>
       <c r="P7">
-        <v>5.28</v>
+        <v>5.17</v>
       </c>
       <c r="Q7">
-        <v>0.03404255319148936</v>
+        <v>0.03108839446782922</v>
       </c>
       <c r="R7">
-        <v>0.3406451612903226</v>
+        <v>0.3095808383233533</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1300,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.04704689966640929</v>
+        <v>0.04049632828323475</v>
       </c>
       <c r="AB7">
-        <v>0.04704689966640929</v>
+        <v>0.04049632828323475</v>
       </c>
       <c r="AD7">
         <v>0</v>
